--- a/RMPP/RMPP_Unit08_Exe8.4G.xlsx
+++ b/RMPP/RMPP_Unit08_Exe8.4G.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E65EF48FD88295679F1846E624DC5306EFD7E987" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_E65EF48FD88295679F1846E624DC5306EFD7E987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDA82DF3-1C50-4953-8A32-9C8C6E06033E}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="14985" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9030" yWindow="2340" windowWidth="21135" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Batch</t>
   </si>
@@ -37,19 +42,83 @@
   </si>
   <si>
     <t>Agent2</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Difference in Means</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>This paired t-test compares Filter Agent 1 and Filter Agent 2 using data from 12 batches. Agent 1 has an average score of about 8.250, whereas Agent 2’s average is roughly 8.683, resulting in a mean difference (Agent 1 – Agent 2) of about -0.433. In the two-tailed test, the p-value is approximately 0.0075, which is below the usual 0.05 threshold, indicating a statistically significant difference. Because Agent 2 has a higher average, it appears to perform better overall. If the focus were on a one-tailed test to see if Agent 1 is more effective, the results would not support that claim, as Agent 2’s mean consistently exceeds that of Agent 1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -63,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -71,11 +140,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -83,8 +173,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -100,10 +203,77 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>151732</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD986B7-AEFD-5298-2946-570424DFF689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153275" y="66675"/>
+          <a:ext cx="5342857" cy="4428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,9 +311,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,26 +346,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,26 +381,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,13 +557,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -437,8 +586,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -449,7 +601,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -459,8 +611,15 @@
       <c r="C3" s="1">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -470,8 +629,17 @@
       <c r="C4" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>8.2500000000000018</v>
+      </c>
+      <c r="G4" s="7">
+        <v>8.6833333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -481,8 +649,17 @@
       <c r="C5" s="1">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.059090909090876</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.077878787878779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -492,8 +669,17 @@
       <c r="C6" s="1">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -503,8 +689,15 @@
       <c r="C7" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.90105581177249228</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -514,8 +707,15 @@
       <c r="C8" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -525,8 +725,15 @@
       <c r="C9" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -536,8 +743,15 @@
       <c r="C10" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-3.2639385914780683</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -547,8 +761,15 @@
       <c r="C11" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.7729973151557437E-3</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -558,8 +779,15 @@
       <c r="C12" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.7958848187040437</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -569,11 +797,111 @@
       <c r="C13" s="1">
         <v>9.1</v>
       </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>7.5459946303114873E-3</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.2009851600916384</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8">
+        <f>+F4-G4</f>
+        <v>-0.43333333333333179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:G27"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -583,7 +911,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -597,7 +925,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
